--- a/document/数据库设计/商城.xlsx
+++ b/document/数据库设计/商城.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
   <si>
     <t>Merchant 商户基本信息表（mysql）</t>
   </si>
@@ -186,7 +186,10 @@
     <t>settlement_price</t>
   </si>
   <si>
-    <t>商品单价</t>
+    <t>购买时单价</t>
+  </si>
+  <si>
+    <t>pay_price</t>
   </si>
   <si>
     <t>联系方式</t>
@@ -204,6 +207,12 @@
     <t>状态</t>
   </si>
   <si>
+    <t>当前商品单价</t>
+  </si>
+  <si>
+    <t>current_price</t>
+  </si>
+  <si>
     <t>商户状态</t>
   </si>
   <si>
@@ -222,24 +231,24 @@
     <t>order_time</t>
   </si>
   <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>mdt</t>
+  </si>
+  <si>
+    <t>过期时间</t>
+  </si>
+  <si>
+    <t>expire_time</t>
+  </si>
+  <si>
     <t>小计</t>
   </si>
   <si>
     <t>subtotal</t>
   </si>
   <si>
-    <t>修改时间</t>
-  </si>
-  <si>
-    <t>mdt</t>
-  </si>
-  <si>
-    <t>过期时间</t>
-  </si>
-  <si>
-    <t>expire_time</t>
-  </si>
-  <si>
     <t>完成时间</t>
   </si>
   <si>
@@ -255,30 +264,30 @@
     <t>Merchant_Detail 商户详情信息（mongo）</t>
   </si>
   <si>
+    <t>商品简介</t>
+  </si>
+  <si>
+    <t>introduce</t>
+  </si>
+  <si>
+    <t>商户描述</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>主要成分</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
     <t>Order_Logistics  订单物流信息表(mongo)</t>
   </si>
   <si>
-    <t>商品简介</t>
-  </si>
-  <si>
-    <t>introduce</t>
-  </si>
-  <si>
-    <t>商户描述</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>主要成分</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>string[]</t>
-  </si>
-  <si>
     <t>商户logo</t>
   </si>
   <si>
@@ -306,145 +315,148 @@
     <t>商品详情</t>
   </si>
   <si>
+    <t>多媒体</t>
+  </si>
+  <si>
+    <t>medias</t>
+  </si>
+  <si>
+    <t>media[]</t>
+  </si>
+  <si>
+    <t>收货联系人</t>
+  </si>
+  <si>
+    <t>recevier_name</t>
+  </si>
+  <si>
+    <t>联系人电话</t>
+  </si>
+  <si>
+    <t>recevier_phone</t>
+  </si>
+  <si>
     <t>物流公司编号</t>
   </si>
   <si>
     <t>logistics_id</t>
   </si>
   <si>
-    <t>多媒体</t>
-  </si>
-  <si>
-    <t>medias</t>
-  </si>
-  <si>
-    <t>media[]</t>
+    <t>收货地址</t>
+  </si>
+  <si>
+    <t>receive_addr</t>
+  </si>
+  <si>
+    <t>物流信息编号</t>
+  </si>
+  <si>
+    <t>logistics_biz_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 数据字典表（mongo）</t>
+  </si>
+  <si>
+    <t>Media 多媒体信息(mongo)</t>
+  </si>
+  <si>
+    <t>支付流水号</t>
+  </si>
+  <si>
+    <t>pay_trans_no</t>
+  </si>
+  <si>
+    <t>快递单号</t>
+  </si>
+  <si>
+    <t>tracking_no</t>
+  </si>
+  <si>
+    <t>支付状态</t>
+  </si>
+  <si>
+    <t>pay_status</t>
+  </si>
+  <si>
+    <t>发货时间</t>
+  </si>
+  <si>
+    <t>sendout_time</t>
+  </si>
+  <si>
+    <t>收货时间</t>
+  </si>
+  <si>
+    <t>receive_time</t>
+  </si>
+  <si>
+    <t>数据组</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>多媒体编号</t>
+  </si>
+  <si>
+    <t>media_id</t>
+  </si>
+  <si>
+    <t>键</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>多媒体名</t>
+  </si>
+  <si>
+    <t>键名</t>
+  </si>
+  <si>
+    <t>key_name</t>
+  </si>
+  <si>
+    <t>作用域</t>
+  </si>
+  <si>
+    <t>scpoe</t>
+  </si>
+  <si>
+    <t>stirng</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+  </si>
+  <si>
+    <t>Order_Tracking  订单物流追踪表(mongo)</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>存储路径</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
   <si>
     <t>物流信息遍号</t>
-  </si>
-  <si>
-    <t>logistics_biz_no</t>
-  </si>
-  <si>
-    <t>快递单号</t>
-  </si>
-  <si>
-    <t>tracking_no</t>
-  </si>
-  <si>
-    <t>收货联系人</t>
-  </si>
-  <si>
-    <t>recevier_name</t>
-  </si>
-  <si>
-    <t>发货时间</t>
-  </si>
-  <si>
-    <t>sendout_time</t>
-  </si>
-  <si>
-    <t>联系人电话</t>
-  </si>
-  <si>
-    <t>recevier_phone</t>
-  </si>
-  <si>
-    <t>收货时间</t>
-  </si>
-  <si>
-    <t>receive_time</t>
-  </si>
-  <si>
-    <t>收货地址</t>
-  </si>
-  <si>
-    <t>receive_addr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 数据字典表（mongo）</t>
-  </si>
-  <si>
-    <t>Media 多媒体信息(mongo)</t>
-  </si>
-  <si>
-    <t>支付流水号</t>
-  </si>
-  <si>
-    <t>pay_trans_no</t>
-  </si>
-  <si>
-    <t>支付状态</t>
-  </si>
-  <si>
-    <t>pay_status</t>
-  </si>
-  <si>
-    <t>Order_Tracking  订单物流追踪表(mongo)</t>
-  </si>
-  <si>
-    <t>数据组</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>多媒体编号</t>
-  </si>
-  <si>
-    <t>media_id</t>
-  </si>
-  <si>
-    <t>键</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>多媒体名</t>
-  </si>
-  <si>
-    <t>键名</t>
-  </si>
-  <si>
-    <t>key_name</t>
-  </si>
-  <si>
-    <t>作用域</t>
-  </si>
-  <si>
-    <t>scpoe</t>
-  </si>
-  <si>
-    <t>stirng</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string </t>
-  </si>
-  <si>
-    <t>排序</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>存储路径</t>
-  </si>
-  <si>
-    <t>url</t>
   </si>
   <si>
     <t>追踪详情</t>
@@ -532,13 +544,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,10 +567,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,18 +590,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -599,7 +606,82 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,14 +695,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -629,64 +703,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -699,7 +720,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,7 +741,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,37 +885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,85 +897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,37 +909,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,26 +984,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,17 +1020,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,17 +1053,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,152 +1083,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1253,8 +1274,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1604,10 +1634,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" topLeftCell="L19" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25:S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1883,13 +1913,13 @@
       <c r="O8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="R8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="S8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1930,13 +1960,13 @@
       <c r="O9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="R9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="S9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1977,28 +2007,28 @@
       <c r="O10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="R10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="13" t="s">
+      <c r="R10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>12</v>
@@ -2007,7 +2037,7 @@
         <v>13</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>51</v>
@@ -2024,19 +2054,19 @@
       <c r="O11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S11" s="13" t="s">
+      <c r="Q11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="S11" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>51</v>
@@ -2045,37 +2075,37 @@
         <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="S12" s="13" t="s">
         <v>20</v>
@@ -2083,46 +2113,46 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="J13" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="S13" s="13" t="s">
         <v>20</v>
@@ -2130,41 +2160,41 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="5:19">
       <c r="E15" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>51</v>
@@ -2173,18 +2203,18 @@
         <v>20</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -2198,16 +2228,25 @@
         <v>7</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>68</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -2225,21 +2264,16 @@
       </c>
       <c r="G17" s="4"/>
       <c r="M17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:19">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -2258,17 +2292,8 @@
       <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -2279,102 +2304,89 @@
         <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="M21" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="Q21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R21" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="S21" s="13" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>20</v>
@@ -2388,34 +2400,34 @@
       <c r="O22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q22" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="R22" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="S22" s="15" t="s">
-        <v>20</v>
+      <c r="Q22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>8</v>
@@ -2426,34 +2438,34 @@
       <c r="O23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q23" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="R23" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="S23" s="15" t="s">
+      <c r="Q23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>18</v>
@@ -2464,117 +2476,117 @@
       <c r="O24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="R24" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="S24" s="15" t="s">
+      <c r="Q24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="S24" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="5:19">
       <c r="E25" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q25" s="14" t="s">
-        <v>107</v>
+      <c r="Q25" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="R25" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="S25" s="13" t="s">
-        <v>65</v>
+        <v>12</v>
+      </c>
+      <c r="S25" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="13:19">
       <c r="M26" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="R26" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="S26" s="13" t="s">
-        <v>65</v>
+      <c r="Q26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="13:19">
       <c r="M27" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R27" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="S27" s="13" t="s">
-        <v>65</v>
+        <v>110</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="11"/>
       <c r="M28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R28" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="N28" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R28" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="S28" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="S28" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="8" t="s">
         <v>5</v>
       </c>
@@ -2594,13 +2606,22 @@
         <v>7</v>
       </c>
       <c r="M29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="O29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="O29" s="4" t="s">
-        <v>20</v>
+      <c r="R29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2623,70 +2644,74 @@
         <v>10</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S30" s="13" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>20</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>7</v>
+        <v>66</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S31" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>26</v>
@@ -2695,105 +2720,92 @@
         <v>20</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>71</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S33" s="4" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R34" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="S34" s="13" t="s">
-        <v>20</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="R35" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="S35" s="15" t="s">
-        <v>20</v>
+      <c r="Q35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>51</v>
@@ -2802,91 +2814,135 @@
         <v>20</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q36" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="R36" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="S36" s="15" t="s">
-        <v>20</v>
+        <v>68</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q37" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="R37" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="S37" s="15" t="s">
-        <v>145</v>
+        <v>68</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="F38" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="R38" s="13" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="S38" s="13" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="17:19">
       <c r="Q39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R39" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="17:19">
+      <c r="Q40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="17:19">
+      <c r="Q41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="17:19">
+      <c r="Q42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S42" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="17:19">
+      <c r="Q43" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S39" s="13" t="s">
-        <v>65</v>
+      <c r="R43" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="S43" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2898,11 +2954,11 @@
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="Q20:S20"/>
     <mergeCell ref="M21:O21"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="E28:G28"/>
-    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="Q34:S34"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2926,122 +2982,122 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
